--- a/storage/app/xlsx/seed_cidades_ce.xlsx
+++ b/storage/app/xlsx/seed_cidades_ce.xlsx
@@ -23,7 +23,7 @@
     <t>ABAIARENSE</t>
   </si>
   <si>
-    <t>56cd9ba8-29de-45bd-a146-f381eccf9b68</t>
+    <t>c68dfe10-9d9a-4332-a408-2a64fbe294ac</t>
   </si>
   <si>
     <t>ACARAPE</t>

--- a/storage/app/xlsx/seed_cidades_ce.xlsx
+++ b/storage/app/xlsx/seed_cidades_ce.xlsx
@@ -23,7 +23,7 @@
     <t>ABAIARENSE</t>
   </si>
   <si>
-    <t>c68dfe10-9d9a-4332-a408-2a64fbe294ac</t>
+    <t>c7db7b61-d55d-48d7-ae39-0f08897d4e0e</t>
   </si>
   <si>
     <t>ACARAPE</t>

--- a/storage/app/xlsx/seed_cidades_ce.xlsx
+++ b/storage/app/xlsx/seed_cidades_ce.xlsx
@@ -23,7 +23,7 @@
     <t>ABAIARENSE</t>
   </si>
   <si>
-    <t>c7db7b61-d55d-48d7-ae39-0f08897d4e0e</t>
+    <t>eebe2cba-093e-4034-968b-a4c9440a27a2</t>
   </si>
   <si>
     <t>ACARAPE</t>

--- a/storage/app/xlsx/seed_cidades_ce.xlsx
+++ b/storage/app/xlsx/seed_cidades_ce.xlsx
@@ -23,7 +23,7 @@
     <t>ABAIARENSE</t>
   </si>
   <si>
-    <t>eebe2cba-093e-4034-968b-a4c9440a27a2</t>
+    <t>c2b0724e-616d-49d5-a933-35cf2a1e7fd7</t>
   </si>
   <si>
     <t>ACARAPE</t>

--- a/storage/app/xlsx/seed_cidades_ce.xlsx
+++ b/storage/app/xlsx/seed_cidades_ce.xlsx
@@ -23,7 +23,7 @@
     <t>ABAIARENSE</t>
   </si>
   <si>
-    <t>c2b0724e-616d-49d5-a933-35cf2a1e7fd7</t>
+    <t>3d322f41-c49f-4496-b2b5-ac6e965bb4ab</t>
   </si>
   <si>
     <t>ACARAPE</t>

--- a/storage/app/xlsx/seed_cidades_ce.xlsx
+++ b/storage/app/xlsx/seed_cidades_ce.xlsx
@@ -23,7 +23,7 @@
     <t>ABAIARENSE</t>
   </si>
   <si>
-    <t>3d322f41-c49f-4496-b2b5-ac6e965bb4ab</t>
+    <t>27d3ef7b-993a-4ca4-b4db-b4b0c8cb0a02</t>
   </si>
   <si>
     <t>ACARAPE</t>
